--- a/data/input_excel/DBLP_toxicity_dataset.xlsx
+++ b/data/input_excel/DBLP_toxicity_dataset.xlsx
@@ -375,26 +375,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="62.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="4" max="4" width="115.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="99.83203125" customWidth="1"/>
+    <col min="3" max="3" width="133.83203125" customWidth="1"/>
+    <col min="4" max="4" width="135.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
     <col min="9" max="9" width="9.83203125" customWidth="1"/>
     <col min="10" max="10" width="41.83203125" customWidth="1"/>
-    <col min="11" max="11" width="147.83203125" customWidth="1"/>
+    <col min="11" max="11" width="238.83203125" customWidth="1"/>
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
-    <col min="13" max="13" width="101.83203125" customWidth="1"/>
-    <col min="14" max="14" width="33.83203125" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="13" max="13" width="126.83203125" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" customWidth="1"/>
+    <col min="15" max="15" width="33.83203125" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,46 +450,46 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B2" t="str">
-        <v>Van Dorpe J,Yang Z,Grenon-Godbout N,Winterstein G</v>
+        <v>Bensalem I,Rosso P,Zitouni H</v>
       </c>
       <c r="C2" t="str">
-        <v>Wang M,Zitouni I</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>Unveiling Identity Biases in Toxicity Detection : A Game-Focused Dataset and Reactivity Analysis Approach</v>
+        <v>Toxic language detection: A systematic review of Arabic datasets</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>Expert Syst. J. Knowl. Eng.</v>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>41</v>
       </c>
       <c r="H2" t="str">
-        <v/>
+        <v>8</v>
       </c>
       <c r="I2" t="str">
-        <v>263-274</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing: EMNLP 2023 - Industry Track, Singapore, December 6-10, 2023</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M2" t="str">
-        <v>https://aclanthology.org/2023.emnlp-industry.26</v>
+        <v>https://doi.org/10.1111/exsy.13551;http://dx.doi.org/10.1111/EXSY.13551</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>10.1111/EXSY.13551</v>
       </c>
       <c r="O2" t="str">
         <v/>
@@ -503,28 +503,28 @@
         <v>Journal Article</v>
       </c>
       <c r="B3" t="str">
-        <v>Korotkova E,Chung IK</v>
+        <v>Babakov N,Logacheva V,Panchenko A</v>
       </c>
       <c r="C3" t="str">
         <v/>
       </c>
       <c r="D3" t="str">
-        <v>Beyond Toxic: Toxicity Detection Datasets are Not Enough for Brand Safety</v>
+        <v>Beyond plain toxic: building datasets for detection of flammable topics and inappropriate statements</v>
       </c>
       <c r="E3" t="str">
-        <v>CoRR</v>
+        <v>Lang. Resour. Evaluation</v>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v>abs/2303.15110</v>
+        <v>58</v>
       </c>
       <c r="H3" t="str">
-        <v/>
+        <v>2</v>
       </c>
       <c r="I3" t="str">
-        <v/>
+        <v>459-504</v>
       </c>
       <c r="J3" t="str">
         <v/>
@@ -533,19 +533,19 @@
         <v/>
       </c>
       <c r="L3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M3" t="str">
-        <v>https://doi.org/10.48550/arXiv.2303.15110;http://dx.doi.org/10.48550/ARXIV.2303.15110</v>
+        <v>https://doi.org/10.1007/s10579-023-09682-z;http://dx.doi.org/10.1007/S10579-023-09682-Z</v>
       </c>
       <c r="N3" t="str">
-        <v>10.48550/ARXIV.2303.15110</v>
+        <v>10.1007/S10579-023-09682-Z</v>
       </c>
       <c r="O3" t="str">
         <v/>
       </c>
       <c r="P3" t="str">
-        <v>2303.15110</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -553,19 +553,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>Ghosh S,Lepcha S,Sakshi S,Shah RR,Umesh S</v>
+        <v>Costa-jussà MR,Meglioli MC,Andrews P,Dale D,Hansanti P,Kalbassi E,Mourachko A,Ropers C,Wood C</v>
       </c>
       <c r="C4" t="str">
-        <v>Ko H,Hansen JH</v>
+        <v>Ku LW,Martins A,Srikumar V</v>
       </c>
       <c r="D4" t="str">
-        <v>DeToxy: A Large-Scale Multimodal Dataset for Toxicity Classification in Spoken Utterances</v>
+        <v>MuTox: Universal MUltilingual Audio-based TOXicity Dataset and Zero-shot Detector</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
         <v/>
@@ -574,22 +574,22 @@
         <v/>
       </c>
       <c r="I4" t="str">
-        <v>5185-5189</v>
+        <v>5725-5734</v>
       </c>
       <c r="J4" t="str">
-        <v>ISCA</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K4" t="str">
-        <v>Interspeech 2022, 23rd Annual Conference of the International Speech Communication Association, Incheon, Korea, 18-22 September 2022</v>
+        <v>Findings of the Association for Computational Linguistics, ACL 2024, Bangkok, Thailand and virtual meeting, August 11-16, 2024</v>
       </c>
       <c r="L4" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="M4" t="str">
-        <v>https://doi.org/10.21437/Interspeech.2022-10752;http://dx.doi.org/10.21437/INTERSPEECH.2022-10752</v>
+        <v>https://doi.org/10.18653/v1/2024.findings-acl.340;http://dx.doi.org/10.18653/V1/2024.FINDINGS-ACL.340</v>
       </c>
       <c r="N4" t="str">
-        <v>10.21437/INTERSPEECH.2022-10752</v>
+        <v>10.18653/V1/2024.FINDINGS-ACL.340</v>
       </c>
       <c r="O4" t="str">
         <v/>
@@ -600,46 +600,46 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
-        <v>Fortuna P,Soler Company J,Wanner L</v>
+        <v>Silberg J,Swanson K,Simon E,Zhang A,Ghazizadeh Z,Ogden S,Hamadeh H,Zou JY</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Globersons A,Mackey L,Belgrave D,Fan A,Paquet U,Tomczak JM,Zhang C</v>
       </c>
       <c r="D5" t="str">
-        <v>How well do hate speech, toxicity, abusive and offensive language classification models generalize across datasets?</v>
+        <v>UniTox: Leveraging LLMs to Curate a Unified Dataset of Drug-Induced Toxicity from FDA Labels</v>
       </c>
       <c r="E5" t="str">
-        <v>Inf. Process. Manag.</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
-        <v>58</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>3</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v>102524</v>
+        <v/>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5" t="str">
-        <v/>
+        <v>Advances in Neural Information Processing Systems 38: Annual Conference on Neural Information Processing Systems 2024, NeurIPS 2024, Vancouver, BC, Canada, December 10 - 15, 2024</v>
       </c>
       <c r="L5" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="M5" t="str">
-        <v>https://doi.org/10.1016/j.ipm.2021.102524;http://dx.doi.org/10.1016/J.IPM.2021.102524</v>
+        <v>http://papers.nips.cc/paper_files/paper/2024/hash/16659e412de3965fa195ddb9f2c4b356-Abstract-Datasets_and_Benchmarks_Track.html</v>
       </c>
       <c r="N5" t="str">
-        <v>10.1016/J.IPM.2021.102524</v>
+        <v/>
       </c>
       <c r="O5" t="str">
         <v/>
@@ -650,46 +650,46 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
-        <v>Antelo-Collado A,Carrasco-Velar R,García-Pedrajas N,García GC</v>
+        <v>Wang S,Levy B</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Globersons A,Mackey L,Belgrave D,Fan A,Paquet U,Tomczak JM,Zhang C</v>
       </c>
       <c r="D6" t="str">
-        <v>Effective Feature Selection Method for Class-Imbalance Datasets Applied to Chemical Toxicity Prediction</v>
+        <v>BeanCounter: A low-toxicity, large-scale, and open dataset of business-oriented text</v>
       </c>
       <c r="E6" t="str">
-        <v>J. Chem. Inf. Model.</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="str">
-        <v>61</v>
+        <v/>
       </c>
       <c r="H6" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="I6" t="str">
-        <v>76-94</v>
+        <v/>
       </c>
       <c r="J6" t="str">
         <v/>
       </c>
       <c r="K6" t="str">
-        <v/>
+        <v>Advances in Neural Information Processing Systems 38: Annual Conference on Neural Information Processing Systems 2024, NeurIPS 2024, Vancouver, BC, Canada, December 10 - 15, 2024</v>
       </c>
       <c r="L6" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="M6" t="str">
-        <v>https://doi.org/10.1021/acs.jcim.0c00908;http://dx.doi.org/10.1021/ACS.JCIM.0C00908</v>
+        <v>http://papers.nips.cc/paper_files/paper/2024/hash/a6b99249d04f982fd2f7d5b2506bf541-Abstract-Datasets_and_Benchmarks_Track.html</v>
       </c>
       <c r="N6" t="str">
-        <v>10.1021/ACS.JCIM.0C00908</v>
+        <v/>
       </c>
       <c r="O6" t="str">
         <v/>
@@ -703,19 +703,19 @@
         <v>Conference Paper</v>
       </c>
       <c r="B7" t="str">
-        <v>Burtenshaw B,Kestemont M</v>
+        <v>Lima LH,Pagano AS,da Silva AP</v>
       </c>
       <c r="C7" t="str">
-        <v>Rapp R,Sharoff S,Zweigenbaum P</v>
+        <v>Gamallo P,Claro DB,Teixeira AJ,Real L,García M,Oliveira HG,Amaro R</v>
       </c>
       <c r="D7" t="str">
-        <v>A Dutch Dataset for Cross-lingual Multilabel Toxicity Detection</v>
+        <v>Toxic Content Detection in online social networks: a new dataset from Brazilian Reddit Communities</v>
       </c>
       <c r="E7" t="str">
         <v/>
       </c>
       <c r="F7" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G7" t="str">
         <v/>
@@ -724,19 +724,19 @@
         <v/>
       </c>
       <c r="I7" t="str">
-        <v>75-79</v>
+        <v>472-482</v>
       </c>
       <c r="J7" t="str">
-        <v>INCOMA Ltd.</v>
+        <v>Association for Computational Lingustics</v>
       </c>
       <c r="K7" t="str">
-        <v>Proceedings of the 14th Workshop on Building and Using Comparable Corpora, BUCC@RANLP 2021, Online, September 6, 2021</v>
+        <v>Proceedings of the 16th International Conference on Computational Processing of Portuguese, PROPOR 2024, Santiago de Compostela, Galicia/Spain, 12-15 March, 2024</v>
       </c>
       <c r="L7" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="M7" t="str">
-        <v>https://aclanthology.org/2021.bucc-1.10</v>
+        <v>https://aclanthology.org/2024.propor-1.48</v>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -750,52 +750,52 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B8" t="str">
-        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+        <v>Costa-jussà MR,Meglioli MC,Andrews P,Dale D,Hansanti P,Kalbassi E,Mourachko A,Ropers C,Wood C</v>
       </c>
       <c r="C8" t="str">
-        <v>Zong C,Xia F,Li W,Navigli R</v>
+        <v/>
       </c>
       <c r="D8" t="str">
-        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+        <v>MuTox: Universal MUltilingual Audio-based TOXicity Dataset and Zero-shot Detector</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F8" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G8" t="str">
-        <v>ACL/IJCNLP 2021</v>
+        <v>abs/2401.05060</v>
       </c>
       <c r="H8" t="str">
         <v/>
       </c>
       <c r="I8" t="str">
-        <v>2406-2416</v>
+        <v/>
       </c>
       <c r="J8" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="K8" t="str">
-        <v>Findings of the Association for Computational Linguistics: ACL/IJCNLP 2021, Online Event, August 1-6, 2021</v>
+        <v/>
       </c>
       <c r="L8" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="M8" t="str">
-        <v>https://doi.org/10.18653/v1/2021.findings-acl.213;http://dx.doi.org/10.18653/V1/2021.FINDINGS-ACL.213</v>
+        <v>https://doi.org/10.48550/arXiv.2401.05060;http://dx.doi.org/10.48550/ARXIV.2401.05060</v>
       </c>
       <c r="N8" t="str">
-        <v>10.18653/V1/2021.FINDINGS-ACL.213</v>
+        <v>10.48550/ARXIV.2401.05060</v>
       </c>
       <c r="O8" t="str">
-        <v>Findings of ACL</v>
+        <v/>
       </c>
       <c r="P8" t="str">
-        <v/>
+        <v>2401.05060</v>
       </c>
     </row>
     <row r="9">
@@ -803,54 +803,1454 @@
         <v>Journal Article</v>
       </c>
       <c r="B9" t="str">
-        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+        <v>Adamczyk J,Poziemski J,Siedlecki P</v>
       </c>
       <c r="C9" t="str">
         <v/>
       </c>
       <c r="D9" t="str">
-        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+        <v>ApisTox: a new benchmark dataset for the classification of small molecules toxicity on honey bees</v>
       </c>
       <c r="E9" t="str">
         <v>CoRR</v>
       </c>
       <c r="F9" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G9" t="str">
+        <v>abs/2404.16196</v>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M9" t="str">
+        <v>https://doi.org/10.48550/arXiv.2404.16196;http://dx.doi.org/10.48550/ARXIV.2404.16196</v>
+      </c>
+      <c r="N9" t="str">
+        <v>10.48550/ARXIV.2404.16196</v>
+      </c>
+      <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
+        <v>2404.16196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Susanto L,Wijanarko MI,Pratama PA,Hong T,Idris I,Aji AF,Wijaya D</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>IndoToxic2024: A Demographically-Enriched Dataset of Hate Speech and Toxicity Types for Indonesian Language</v>
+      </c>
+      <c r="E10" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F10" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G10" t="str">
+        <v>abs/2406.19349</v>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M10" t="str">
+        <v>https://doi.org/10.48550/arXiv.2406.19349;http://dx.doi.org/10.48550/ARXIV.2406.19349</v>
+      </c>
+      <c r="N10" t="str">
+        <v>10.48550/ARXIV.2406.19349</v>
+      </c>
+      <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
+        <v>2406.19349</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Wang S,Levy B</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>BeanCounter: A low-toxicity, large-scale, and open dataset of business-oriented text</v>
+      </c>
+      <c r="E11" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F11" t="str">
+        <v>2024</v>
+      </c>
+      <c r="G11" t="str">
+        <v>abs/2409.17827</v>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <v>2024</v>
+      </c>
+      <c r="M11" t="str">
+        <v>https://doi.org/10.48550/arXiv.2409.17827;http://dx.doi.org/10.48550/ARXIV.2409.17827</v>
+      </c>
+      <c r="N11" t="str">
+        <v>10.48550/ARXIV.2409.17827</v>
+      </c>
+      <c r="O11" t="str">
+        <v/>
+      </c>
+      <c r="P11" t="str">
+        <v>2409.17827</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Bharti V,Nair SS,Jain A,Shukla KK,Biswas B</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>Concept drift detection in toxicology datasets using discriminative subgraph-based drift detector</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Briefings Bioinform.</v>
+      </c>
+      <c r="F12" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G12" t="str">
+        <v>24</v>
+      </c>
+      <c r="H12" t="str">
+        <v>1</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M12" t="str">
+        <v>https://doi.org/10.1093/bib/bbac506;http://dx.doi.org/10.1093/BIB/BBAC506</v>
+      </c>
+      <c r="N12" t="str">
+        <v>10.1093/BIB/BBAC506</v>
+      </c>
+      <c r="O12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Havzi S,Taibi D</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Jovanovic J,Chounta IA,Uhomoibhi J,McLaren BM</v>
+      </c>
+      <c r="D13" t="str">
+        <v>An Overview of Toxic Content Datasets for Artificial Intelligence Applications to Educate Students Towards a Better Use of Social Media</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v>120-127</v>
+      </c>
+      <c r="J13" t="str">
+        <v>SCITEPRESS</v>
+      </c>
+      <c r="K13" t="str">
+        <v>Proceedings of the 15th International Conference on Computer Supported Education, CSEDU 2023, Prague, Czech Republic, April 21-23, 2023, Volume 2</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M13" t="str">
+        <v>https://doi.org/10.5220/0011987100003470;http://dx.doi.org/10.5220/0011987100003470</v>
+      </c>
+      <c r="N13" t="str">
+        <v>10.5220/0011987100003470</v>
+      </c>
+      <c r="O13" t="str">
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Van Dorpe J,Yang Z,Grenon-Godbout N,Winterstein G</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Wang M,Zitouni I</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Unveiling Identity Biases in Toxicity Detection : A Game-Focused Dataset and Reactivity Analysis Approach</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v>263-274</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K14" t="str">
+        <v>Proceedings of the 2023 Conference on Empirical Methods in Natural Language Processing: EMNLP 2023 - Industry Track, Singapore, December 6-10, 2023</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M14" t="str">
+        <v>https://doi.org/10.18653/v1/2023.emnlp-industry.26;http://dx.doi.org/10.18653/V1/2023.EMNLP-INDUSTRY.26</v>
+      </c>
+      <c r="N14" t="str">
+        <v>10.18653/V1/2023.EMNLP-INDUSTRY.26</v>
+      </c>
+      <c r="O14" t="str">
+        <v/>
+      </c>
+      <c r="P14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Bogireddy NR,Suresh S,Rai S</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Ding Y,Tang J,Sequeda JF,Aroyo L,Castillo C,Houben GJ</v>
+      </c>
+      <c r="D15" t="str">
+        <v>I'm out of breath from laughing! I think? A dataset of COVID-19 Humor and its toxic variants</v>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v>1004-1013</v>
+      </c>
+      <c r="J15" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="K15" t="str">
+        <v>Companion Proceedings of the ACM Web Conference 2023, WWW 2023, Austin, TX, USA, 30 April 2023 - 4 May 2023</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M15" t="str">
+        <v>https://doi.org/10.1145/3543873.3587591;http://dx.doi.org/10.1145/3543873.3587591</v>
+      </c>
+      <c r="N15" t="str">
+        <v>10.1145/3543873.3587591</v>
+      </c>
+      <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Duchêne C,Jamet H,Guillaume P,Dehak R</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v>A benchmark for toxic comment classification on Civil Comments dataset</v>
+      </c>
+      <c r="E16" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G16" t="str">
+        <v>abs/2301.11125</v>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M16" t="str">
+        <v>https://doi.org/10.48550/arXiv.2301.11125;http://dx.doi.org/10.48550/ARXIV.2301.11125</v>
+      </c>
+      <c r="N16" t="str">
+        <v>10.48550/ARXIV.2301.11125</v>
+      </c>
+      <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
+        <v>2301.11125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Korotkova E,Chung IK</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>Beyond Toxic: Toxicity Detection Datasets are Not Enough for Brand Safety</v>
+      </c>
+      <c r="E17" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F17" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G17" t="str">
+        <v>abs/2303.15110</v>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+      <c r="K17" t="str">
+        <v/>
+      </c>
+      <c r="L17" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M17" t="str">
+        <v>https://doi.org/10.48550/arXiv.2303.15110;http://dx.doi.org/10.48550/ARXIV.2303.15110</v>
+      </c>
+      <c r="N17" t="str">
+        <v>10.48550/ARXIV.2303.15110</v>
+      </c>
+      <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
+        <v>2303.15110</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Byun S,Jang D,Jo H,Shin H</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>Automatic Construction of a Korean Toxic Instruction Dataset for Ethical Tuning of Large Language Models</v>
+      </c>
+      <c r="E18" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G18" t="str">
+        <v>abs/2311.18215</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+      <c r="J18" t="str">
+        <v/>
+      </c>
+      <c r="K18" t="str">
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M18" t="str">
+        <v>https://doi.org/10.48550/arXiv.2311.18215;http://dx.doi.org/10.48550/ARXIV.2311.18215</v>
+      </c>
+      <c r="N18" t="str">
+        <v>10.48550/ARXIV.2311.18215</v>
+      </c>
+      <c r="O18" t="str">
+        <v/>
+      </c>
+      <c r="P18" t="str">
+        <v>2311.18215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Bensalem I,Rosso P,Zitouni H</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>Toxic language detection: a systematic survey of Arabic datasets</v>
+      </c>
+      <c r="E19" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F19" t="str">
+        <v>2023</v>
+      </c>
+      <c r="G19" t="str">
+        <v>abs/2312.07228</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+      <c r="K19" t="str">
+        <v/>
+      </c>
+      <c r="L19" t="str">
+        <v>2023</v>
+      </c>
+      <c r="M19" t="str">
+        <v>https://doi.org/10.48550/arXiv.2312.07228;http://dx.doi.org/10.48550/ARXIV.2312.07228</v>
+      </c>
+      <c r="N19" t="str">
+        <v>10.48550/ARXIV.2312.07228</v>
+      </c>
+      <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
+        <v>2312.07228</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Sahoo N,Gupta H,Bhattacharyya P</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Fokkens A,Srikumar V</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Detecting Unintended Social Bias in Toxic Language Datasets</v>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v>132-143</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K20" t="str">
+        <v>Proceedings of the 26th Conference on Computational Natural Language Learning, CoNLL 2022, Abu Dhabi, United Arab Emirates (Hybrid Event), December 7-8, 2022</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M20" t="str">
+        <v>https://doi.org/10.18653/v1/2022.conll-1.10;http://dx.doi.org/10.18653/V1/2022.CONLL-1.10</v>
+      </c>
+      <c r="N20" t="str">
+        <v>10.18653/V1/2022.CONLL-1.10</v>
+      </c>
+      <c r="O20" t="str">
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Ghosh S,Lepcha S,Singh S,Shah RR,Umesh S</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Ko H,Hansen JH</v>
+      </c>
+      <c r="D21" t="str">
+        <v>DeToxy: A Large-Scale Multimodal Dataset for Toxicity Classification in Spoken Utterances</v>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v>5185-5189</v>
+      </c>
+      <c r="J21" t="str">
+        <v>ISCA</v>
+      </c>
+      <c r="K21" t="str">
+        <v>23rd Annual Conference of the International Speech Communication Association, Interspeech 2022, Incheon, Korea, September 18-22, 2022</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M21" t="str">
+        <v>https://doi.org/10.21437/Interspeech.2022-10752;http://dx.doi.org/10.21437/INTERSPEECH.2022-10752</v>
+      </c>
+      <c r="N21" t="str">
+        <v>10.21437/INTERSPEECH.2022-10752</v>
+      </c>
+      <c r="O21" t="str">
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Sahoo N,Gupta H,Bhattacharyya P</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v>Detecting Unintended Social Bias in Toxic Language Datasets</v>
+      </c>
+      <c r="E22" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G22" t="str">
+        <v>abs/2210.11762</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+      <c r="K22" t="str">
+        <v/>
+      </c>
+      <c r="L22" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M22" t="str">
+        <v>https://doi.org/10.48550/arXiv.2210.11762;http://dx.doi.org/10.48550/ARXIV.2210.11762</v>
+      </c>
+      <c r="N22" t="str">
+        <v>10.48550/ARXIV.2210.11762</v>
+      </c>
+      <c r="O22" t="str">
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v>2210.11762</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B23" t="str">
+        <v>Fortuna P,Soler Company J,Wanner L</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>How well do hate speech, toxicity, abusive and offensive language classification models generalize across datasets?</v>
+      </c>
+      <c r="E23" t="str">
+        <v>Inf. Process. Manag.</v>
+      </c>
+      <c r="F23" t="str">
         <v>2021</v>
       </c>
-      <c r="G9" t="str">
+      <c r="G23" t="str">
+        <v>58</v>
+      </c>
+      <c r="H23" t="str">
+        <v>3</v>
+      </c>
+      <c r="I23" t="str">
+        <v>102524</v>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+      <c r="K23" t="str">
+        <v/>
+      </c>
+      <c r="L23" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M23" t="str">
+        <v>https://doi.org/10.1016/j.ipm.2021.102524;http://dx.doi.org/10.1016/J.IPM.2021.102524</v>
+      </c>
+      <c r="N23" t="str">
+        <v>10.1016/J.IPM.2021.102524</v>
+      </c>
+      <c r="O23" t="str">
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Antelo-Collado A,Carrasco-Velar R,García-Pedrajas N,García GC</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>Effective Feature Selection Method for Class-Imbalance Datasets Applied to Chemical Toxicity Prediction</v>
+      </c>
+      <c r="E24" t="str">
+        <v>J. Chem. Inf. Model.</v>
+      </c>
+      <c r="F24" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G24" t="str">
+        <v>61</v>
+      </c>
+      <c r="H24" t="str">
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <v>76-94</v>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M24" t="str">
+        <v>https://doi.org/10.1021/acs.jcim.0c00908;http://dx.doi.org/10.1021/ACS.JCIM.0C00908</v>
+      </c>
+      <c r="N24" t="str">
+        <v>10.1021/ACS.JCIM.0C00908</v>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Burtenshaw B,Kestemont M</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Rapp R,Sharoff S,Zweigenbaum P</v>
+      </c>
+      <c r="D25" t="str">
+        <v>A Dutch Dataset for Cross-lingual Multilabel Toxicity Detection</v>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>75-79</v>
+      </c>
+      <c r="J25" t="str">
+        <v>INCOMA Ltd.</v>
+      </c>
+      <c r="K25" t="str">
+        <v>Proceedings of the 14th Workshop on Building and Using Comparable Corpora, BUCC@RANLP 2021, Online, September 6, 2021</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M25" t="str">
+        <v>https://aclanthology.org/2021.bucc-1.10</v>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Zong C,Xia F,Li W,Navigli R</v>
+      </c>
+      <c r="D26" t="str">
+        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G26" t="str">
+        <v>ACL/IJCNLP 2021</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v>2406-2416</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K26" t="str">
+        <v>Findings of the Association for Computational Linguistics: ACL/IJCNLP 2021, Online Event, August 1-6, 2021</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M26" t="str">
+        <v>https://doi.org/10.18653/v1/2021.findings-acl.213;http://dx.doi.org/10.18653/V1/2021.FINDINGS-ACL.213</v>
+      </c>
+      <c r="N26" t="str">
+        <v>10.18653/V1/2021.FINDINGS-ACL.213</v>
+      </c>
+      <c r="O26" t="str">
+        <v>Findings of ACL</v>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B27" t="str">
+        <v>Wang Z,Zhang B</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v>Improved Bi-GRU Model for Imbalanced English Toxic Comments Dataset</v>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v>24-29</v>
+      </c>
+      <c r="J27" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="K27" t="str">
+        <v>NLPIR 2021: 5th International Conference on Natural Language Processing and Information Retrieval, Sanya, China, December 17 - 20, 2021</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M27" t="str">
+        <v>https://doi.org/10.1145/3508230.3508234;http://dx.doi.org/10.1145/3508230.3508234</v>
+      </c>
+      <c r="N27" t="str">
+        <v>10.1145/3508230.3508234</v>
+      </c>
+      <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Weld H,Huang G,Lee J,Zhang T,Wang K,Guo X,Long S,Poon J,Han SC</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>CONDA: a CONtextual Dual-Annotated dataset for in-game toxicity understanding and detection</v>
+      </c>
+      <c r="E28" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F28" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G28" t="str">
         <v>abs/2106.06213</v>
       </c>
-      <c r="H9" t="str">
-        <v/>
-      </c>
-      <c r="I9" t="str">
-        <v/>
-      </c>
-      <c r="J9" t="str">
-        <v/>
-      </c>
-      <c r="K9" t="str">
-        <v/>
-      </c>
-      <c r="L9" t="str">
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="L28" t="str">
         <v>2021</v>
       </c>
-      <c r="M9" t="str">
+      <c r="M28" t="str">
         <v>https://arxiv.org/abs/2106.06213</v>
       </c>
-      <c r="N9" t="str">
-        <v/>
-      </c>
-      <c r="O9" t="str">
-        <v/>
-      </c>
-      <c r="P9" t="str">
+      <c r="N28" t="str">
+        <v/>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
         <v>2106.06213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Gharbi S,Arfaoui H,Haddad H,Kchaou M</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>TEET! Tunisian Dataset for Toxic Speech Detection</v>
+      </c>
+      <c r="E29" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G29" t="str">
+        <v>abs/2110.05287</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://arxiv.org/abs/2110.05287</v>
+      </c>
+      <c r="N29" t="str">
+        <v/>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v>2110.05287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Arhin K,Baldini I,Wei D,Ramamurthy KN,Singh M</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>Ground-Truth, Whose Truth? - Examining the Challenges with Annotating Toxic Text Datasets</v>
+      </c>
+      <c r="E30" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G30" t="str">
+        <v>abs/2112.03529</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://arxiv.org/abs/2112.03529</v>
+      </c>
+      <c r="N30" t="str">
+        <v/>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v>2112.03529</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Nair SK,Eeles C,Ho C,Beri G,Yoo E,Tkachuk D,Tang A,Nijrabi P,Smirnov P,Seo H,Jennen D,Haibe-Kains B</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>ToxicoDB: an integrated database to mine and visualize large-scale toxicogenomic datasets</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Nucleic Acids Res.</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G31" t="str">
+        <v>48</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Webserver-Issue</v>
+      </c>
+      <c r="I31" t="str">
+        <v>W455-W462</v>
+      </c>
+      <c r="J31" t="str">
+        <v/>
+      </c>
+      <c r="K31" t="str">
+        <v/>
+      </c>
+      <c r="L31" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M31" t="str">
+        <v>https://doi.org/10.1093/nar/gkaa390;http://dx.doi.org/10.1093/NAR/GKAA390</v>
+      </c>
+      <c r="N31" t="str">
+        <v>10.1093/NAR/GKAA390</v>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Wong KF,Knight K,Wu H</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v>914-924</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Proceedings of the 1st Conference of the Asia-Pacific Chapter of the Association for Computational Linguistics and the 10th International Joint Conference on Natural Language Processing, AACL/IJCNLP 2020, Suzhou, China, December 4-7, 2020</v>
+      </c>
+      <c r="L32" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M32" t="str">
+        <v>https://aclanthology.org/2020.aacl-main.91/</v>
+      </c>
+      <c r="N32" t="str">
+        <v/>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Fortuna P,Soler Company J,Wanner L</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Calzolari N,Béchet F,Blache P,Choukri K,Cieri C,Declerck T,Goggi S,Isahara H,Maegaard B,Mariani J,Mazo H,Moreno A,Odijk J,Piperidis S</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Toxic, Hateful, Offensive or Abusive? What Are We Really Classifying? An Empirical Analysis of Hate Speech Datasets</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v>6786-6794</v>
+      </c>
+      <c r="J33" t="str">
+        <v>European Language Resources Association</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Proceedings of The 12th Language Resources and Evaluation Conference, LREC 2020, Marseille, France, May 11-16, 2020</v>
+      </c>
+      <c r="L33" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M33" t="str">
+        <v>https://aclanthology.org/2020.lrec-1.838/</v>
+      </c>
+      <c r="N33" t="str">
+        <v/>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Wijesiriwardene T,Inan H,Kursuncu U,Gaur M,Shalin VL,Thirunarayan K,Sheth AP,Arpinar IB</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Aref S,Bontcheva K,Braghieri M,Dignum F,Giannotti F,Grisolia F,Pedreschi D</v>
+      </c>
+      <c r="D34" t="str">
+        <v>ALONE: A Dataset for Toxic Behavior Among Adolescents on Twitter</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G34" t="str">
+        <v>12467</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v>427-439</v>
+      </c>
+      <c r="J34" t="str">
+        <v>Springer</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Social Informatics - 12th International Conference, SocInfo 2020, Pisa, Italy, October 6-9, 2020, Proceedings</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M34" t="str">
+        <v>https://doi.org/10.1007/978-3-030-60975-7_31;http://dx.doi.org/10.1007/978-3-030-60975-7_31</v>
+      </c>
+      <c r="N34" t="str">
+        <v>10.1007/978-3-030-60975-7_31</v>
+      </c>
+      <c r="O34" t="str">
+        <v>Lecture Notes in Computer Science</v>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Wijesiriwardene T,Inan H,Kursuncu U,Gaur M,Shalin VL,Thirunarayan K,Sheth AP,Arpinar IB</v>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>ALONE: A Dataset for Toxic Behavior among Adolescents on Twitter</v>
+      </c>
+      <c r="E35" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F35" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G35" t="str">
+        <v>abs/2008.06465</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+      <c r="J35" t="str">
+        <v/>
+      </c>
+      <c r="K35" t="str">
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M35" t="str">
+        <v>https://arxiv.org/abs/2008.06465</v>
+      </c>
+      <c r="N35" t="str">
+        <v/>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v>2008.06465</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
+      </c>
+      <c r="E36" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F36" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G36" t="str">
+        <v>abs/2010.04543</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+      <c r="K36" t="str">
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M36" t="str">
+        <v>https://arxiv.org/abs/2010.04543</v>
+      </c>
+      <c r="N36" t="str">
+        <v/>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v>2010.04543</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Makhtar M,Neagu D,Ridley MJ</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Böhm C,Khuri S,Lhotská L,Pisanti N</v>
+      </c>
+      <c r="D37" t="str">
+        <v>Binary Classification Models Comparison: On the Similarity of Datasets and Confusion Matrix for Predictive Toxicology Applications</v>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>2011</v>
+      </c>
+      <c r="G37" t="str">
+        <v>6865</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v>108-122</v>
+      </c>
+      <c r="J37" t="str">
+        <v>Springer</v>
+      </c>
+      <c r="K37" t="str">
+        <v>Information Technology in Bio- and Medical Informatics - Second International Conference, ITBAM 2011, Toulouse, France, August 29 - September 2, 2011. Proceedings</v>
+      </c>
+      <c r="L37" t="str">
+        <v>2011</v>
+      </c>
+      <c r="M37" t="str">
+        <v>https://doi.org/10.1007/978-3-642-23208-4_11;http://dx.doi.org/10.1007/978-3-642-23208-4_11</v>
+      </c>
+      <c r="N37" t="str">
+        <v>10.1007/978-3-642-23208-4_11</v>
+      </c>
+      <c r="O37" t="str">
+        <v>Lecture Notes in Computer Science</v>
+      </c>
+      <c r="P37" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P37"/>
   </ignoredErrors>
 </worksheet>
 </file>